--- a/Documents/StatusTracker.xlsx
+++ b/Documents/StatusTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,11 @@
     <sheet name="Individual_Status" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,7 +35,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t>SE:
 The person responsible for ensuring completion, not necessarily all the people doing it</t>
@@ -45,7 +49,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t>swami:
 Insert your own comments</t>
@@ -60,7 +63,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t>SE:
 This field is updated automatically</t>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
   <si>
     <t>Using the Status tracker</t>
   </si>
@@ -456,6 +458,36 @@
   <si>
     <t>Status Tracker for this week</t>
   </si>
+  <si>
+    <t>Migrate to Cross Platform</t>
+  </si>
+  <si>
+    <t>Designed and Created Database</t>
+  </si>
+  <si>
+    <t>Created Barebone Structure for Web App UI</t>
+  </si>
+  <si>
+    <t>Design Login Interface and Created Mock Design of app workflow</t>
+  </si>
+  <si>
+    <t>Created various GET APIs for Web App</t>
+  </si>
+  <si>
+    <t>Created Dedicated Movie and Actor Pages</t>
+  </si>
+  <si>
+    <t>Integrate Tweets According to Hashtags</t>
+  </si>
+  <si>
+    <t>Created GET APIs for Actor and Movie Pages</t>
+  </si>
+  <si>
+    <t>Created Admin Page for Custom Inputs</t>
+  </si>
+  <si>
+    <t>Integrated Twitteer Feeds and Facebook Posts for each Movie based on Admin hashtag inputs</t>
+  </si>
 </sst>
 </file>
 
@@ -465,13 +497,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -492,21 +523,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -514,7 +542,6 @@
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -522,51 +549,39 @@
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -629,7 +644,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -798,10 +813,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -814,11 +825,9 @@
   <dxfs count="3">
     <dxf>
       <font>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
         <name val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
@@ -835,11 +844,9 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
         <name val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
@@ -856,11 +863,9 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
         <name val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
@@ -952,11 +957,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="8.86224489795918"/>
-    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="17.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.2857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="9.59183673469388"/>
+    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="10.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.6632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1845,18 +1850,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.2908163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.4336734693878"/>
-    <col collapsed="false" hidden="false" max="19" min="10" style="0" width="8.86224489795918"/>
-    <col collapsed="false" hidden="false" max="26" min="20" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="17.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.219387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.9948979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.1581632653061"/>
+    <col collapsed="false" hidden="false" max="19" min="10" style="0" width="9.59183673469388"/>
+    <col collapsed="false" hidden="false" max="26" min="20" style="0" width="10.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.6632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11403,147 +11408,132 @@
       <c r="Z274" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5,F6:F27,F29:F50,F52:F54,F56:F58,F60:F63,F65:F68,F70:F73,F75:F77,F79:F82,F84:F65554">
+  <conditionalFormatting sqref="F28">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5,F6:F27,F29:F50,F52:F54,F56:F58,F60:F63,F65:F68,F70:F73,F75:F77,F79:F82,F84:F65554">
+  <conditionalFormatting sqref="F28">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5,F6:F27,F29:F50,F52:F54,F56:F58,F60:F63,F65:F68,F70:F73,F75:F77,F79:F82,F84:F65554">
+  <conditionalFormatting sqref="F28">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F51">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F51">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F51">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F55">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F55">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F55">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+  <conditionalFormatting sqref="F78">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+  <conditionalFormatting sqref="F78">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+  <conditionalFormatting sqref="F78">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
+  <conditionalFormatting sqref="F59">
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
+  <conditionalFormatting sqref="F59">
     <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
+  <conditionalFormatting sqref="F59">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F64">
     <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F64">
     <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F64">
     <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="F74">
     <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="F74">
     <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="F74">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"Delayed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5:B82 B84:B274" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5:B82 B84:B274" type="list">
       <formula1>"Requirements,Design,Development,Testing,Preparation,Coordination,Documentation,Interfaces,Delivery"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F82 F84:F274" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F82 F84:F274" type="list">
       <formula1>"Planned,Ongoing,Delayed,Done"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11564,28 +11554,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z147"/>
+  <dimension ref="A1:Z148"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1326530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8622448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8622448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="17.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.5663265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4744897959184"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.33163265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.4744897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.3826530612245"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.8826530612245"/>
+    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="10.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.6632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12599,7 +12590,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="2"/>
@@ -12626,7 +12617,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="10" t="n">
@@ -12926,36 +12917,39 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26" t="str">
+      <c r="A48" s="40" t="str">
         <f aca="false">(Team_Status!A69)</f>
         <v>Week 14</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2" t="n">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28" t="n">
         <f aca="false">SUM(B48+D48+F48+H48+J48)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="2" t="n">
+      <c r="M48" s="28" t="n">
         <f aca="false">SUM(C48+E48+G48+I48+K48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="n">
-        <f aca="false">(Team_Status!A70)</f>
-        <v>0</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -12966,46 +12960,60 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="n">
         <f aca="false">SUM(B49+D49+F49+H49+J49)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M49" s="2" t="n">
         <f aca="false">SUM(C49+E49+G49+I49+K49)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26" t="n">
-        <f aca="false">(Team_Status!A71)</f>
-        <v>0</v>
+      <c r="A50" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="F50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L50" s="2" t="n">
         <f aca="false">SUM(B50+D50+F50+H50+J50)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M50" s="2" t="n">
         <f aca="false">SUM(C50+E50+G50+I50+K50)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26" t="n">
-        <f aca="false">(Team_Status!A72)</f>
-        <v>0</v>
+      <c r="A51" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -13014,11 +13022,11 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="n">
         <f aca="false">SUM(B51+D51+F51+H51+J51)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M51" s="2" t="n">
         <f aca="false">SUM(C51+E51+G51+I51+K51)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13046,36 +13054,39 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="26" t="str">
+      <c r="A53" s="40" t="str">
         <f aca="false">(Team_Status!A74)</f>
         <v>Week 15</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2" t="n">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28" t="n">
         <f aca="false">SUM(B53+D53+F53+H53+J53)</f>
         <v>0</v>
       </c>
-      <c r="M53" s="2" t="n">
+      <c r="M53" s="28" t="n">
         <f aca="false">SUM(C53+E53+G53+I53+K53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26" t="n">
-        <f aca="false">(Team_Status!A75)</f>
-        <v>0</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>19</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -13086,46 +13097,60 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2" t="n">
         <f aca="false">SUM(B54+D54+F54+H54+J54)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M54" s="2" t="n">
         <f aca="false">SUM(C54+E54+G54+I54+K54)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="n">
-        <f aca="false">(Team_Status!A76)</f>
-        <v>0</v>
+      <c r="A55" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="F55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L55" s="2" t="n">
         <f aca="false">SUM(B55+D55+F55+H55+J55)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="M55" s="2" t="n">
         <f aca="false">SUM(C55+E55+G55+I55+K55)</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26" t="n">
-        <f aca="false">(Team_Status!A77)</f>
-        <v>0</v>
+      <c r="A56" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -13134,18 +13159,15 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2" t="n">
         <f aca="false">SUM(B56+D56+F56+H56+J56)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M56" s="2" t="n">
         <f aca="false">SUM(C56+E56+G56+I56+K56)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26" t="str">
-        <f aca="false">(Team_Status!A78)</f>
-        <v>Week 16</v>
-      </c>
+      <c r="A57" s="26"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -13156,46 +13178,43 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2" t="n">
-        <f aca="false">SUM(B57+D57+F57+H57+J57)</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <f aca="false">SUM(C57+E57+G57+I57+K57)</f>
-        <v>0</v>
-      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="n">
-        <f aca="false">(Team_Status!A79)</f>
-        <v>0</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2" t="n">
+      <c r="A58" s="40" t="str">
+        <f aca="false">(Team_Status!A78)</f>
+        <v>Week 16</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28" t="n">
         <f aca="false">SUM(B58+D58+F58+H58+J58)</f>
         <v>0</v>
       </c>
-      <c r="M58" s="2" t="n">
+      <c r="M58" s="28" t="n">
         <f aca="false">SUM(C58+E58+G58+I58+K58)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26" t="n">
-        <f aca="false">(Team_Status!A80)</f>
-        <v>0</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>7.5</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -13206,70 +13225,95 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="n">
         <f aca="false">SUM(B59+D59+F59+H59+J59)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M59" s="2" t="n">
         <f aca="false">SUM(C59+E59+G59+I59+K59)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26" t="n">
-        <f aca="false">(Team_Status!A81)</f>
-        <v>0</v>
+      <c r="A60" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="F60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="L60" s="2" t="n">
         <f aca="false">SUM(B60+D60+F60+H60+J60)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="M60" s="2" t="n">
         <f aca="false">SUM(C60+E60+G60+I60+K60)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26" t="n">
-        <f aca="false">(Team_Status!A82)</f>
-        <v>0</v>
+      <c r="A61" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="F61" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="L61" s="2" t="n">
         <f aca="false">SUM(B61+D61+F61+H61+J61)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M61" s="2" t="n">
         <f aca="false">SUM(C61+E61+G61+I61+K61)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="26" t="str">
-        <f aca="false">(Team_Status!A83)</f>
-        <v>Week 17</v>
+      <c r="A62" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="D62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -13278,17 +13322,17 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2" t="n">
         <f aca="false">SUM(B62+D62+F62+H62+J62)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M62" s="2" t="n">
         <f aca="false">SUM(C62+E62+G62+I62+K62)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="26" t="n">
-        <f aca="false">(Team_Status!A84)</f>
-        <v>0</v>
+      <c r="A63" s="26" t="str">
+        <f aca="false">(Team_Status!A83)</f>
+        <v>Week 17</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -13311,7 +13355,7 @@
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="26" t="n">
-        <f aca="false">(Team_Status!A85)</f>
+        <f aca="false">(Team_Status!A84)</f>
         <v>0</v>
       </c>
       <c r="B64" s="2"/>
@@ -13335,7 +13379,7 @@
     </row>
     <row r="65" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="26" t="n">
-        <f aca="false">(Team_Status!A86)</f>
+        <f aca="false">(Team_Status!A85)</f>
         <v>0</v>
       </c>
       <c r="B65" s="2"/>
@@ -13359,7 +13403,7 @@
     </row>
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="n">
-        <f aca="false">(Team_Status!A87)</f>
+        <f aca="false">(Team_Status!A86)</f>
         <v>0</v>
       </c>
       <c r="B66" s="2"/>
@@ -13383,7 +13427,7 @@
     </row>
     <row r="67" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="n">
-        <f aca="false">(Team_Status!A88)</f>
+        <f aca="false">(Team_Status!A87)</f>
         <v>0</v>
       </c>
       <c r="B67" s="2"/>
@@ -13407,7 +13451,7 @@
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="n">
-        <f aca="false">(Team_Status!A89)</f>
+        <f aca="false">(Team_Status!A88)</f>
         <v>0</v>
       </c>
       <c r="B68" s="2"/>
@@ -13431,7 +13475,7 @@
     </row>
     <row r="69" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="n">
-        <f aca="false">(Team_Status!A90)</f>
+        <f aca="false">(Team_Status!A89)</f>
         <v>0</v>
       </c>
       <c r="B69" s="2"/>
@@ -13455,7 +13499,7 @@
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="n">
-        <f aca="false">(Team_Status!A91)</f>
+        <f aca="false">(Team_Status!A90)</f>
         <v>0</v>
       </c>
       <c r="B70" s="2"/>
@@ -13479,7 +13523,7 @@
     </row>
     <row r="71" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="n">
-        <f aca="false">(Team_Status!A92)</f>
+        <f aca="false">(Team_Status!A91)</f>
         <v>0</v>
       </c>
       <c r="B71" s="2"/>
@@ -13503,7 +13547,7 @@
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="n">
-        <f aca="false">(Team_Status!A93)</f>
+        <f aca="false">(Team_Status!A92)</f>
         <v>0</v>
       </c>
       <c r="B72" s="2"/>
@@ -13527,7 +13571,7 @@
     </row>
     <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="n">
-        <f aca="false">(Team_Status!A94)</f>
+        <f aca="false">(Team_Status!A93)</f>
         <v>0</v>
       </c>
       <c r="B73" s="2"/>
@@ -13551,7 +13595,7 @@
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="26" t="n">
-        <f aca="false">(Team_Status!A95)</f>
+        <f aca="false">(Team_Status!A94)</f>
         <v>0</v>
       </c>
       <c r="B74" s="2"/>
@@ -13575,7 +13619,7 @@
     </row>
     <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="26" t="n">
-        <f aca="false">(Team_Status!A96)</f>
+        <f aca="false">(Team_Status!A95)</f>
         <v>0</v>
       </c>
       <c r="B75" s="2"/>
@@ -13599,7 +13643,7 @@
     </row>
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="26" t="n">
-        <f aca="false">(Team_Status!A97)</f>
+        <f aca="false">(Team_Status!A96)</f>
         <v>0</v>
       </c>
       <c r="B76" s="2"/>
@@ -13623,7 +13667,7 @@
     </row>
     <row r="77" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="26" t="n">
-        <f aca="false">(Team_Status!A98)</f>
+        <f aca="false">(Team_Status!A97)</f>
         <v>0</v>
       </c>
       <c r="B77" s="2"/>
@@ -13647,7 +13691,7 @@
     </row>
     <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="26" t="n">
-        <f aca="false">(Team_Status!A99)</f>
+        <f aca="false">(Team_Status!A98)</f>
         <v>0</v>
       </c>
       <c r="B78" s="2"/>
@@ -13671,7 +13715,7 @@
     </row>
     <row r="79" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="26" t="n">
-        <f aca="false">(Team_Status!A100)</f>
+        <f aca="false">(Team_Status!A99)</f>
         <v>0</v>
       </c>
       <c r="B79" s="2"/>
@@ -13695,7 +13739,7 @@
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="n">
-        <f aca="false">(Team_Status!A101)</f>
+        <f aca="false">(Team_Status!A100)</f>
         <v>0</v>
       </c>
       <c r="B80" s="2"/>
@@ -13719,7 +13763,7 @@
     </row>
     <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="26" t="n">
-        <f aca="false">(Team_Status!A102)</f>
+        <f aca="false">(Team_Status!A101)</f>
         <v>0</v>
       </c>
       <c r="B81" s="2"/>
@@ -13743,7 +13787,7 @@
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="26" t="n">
-        <f aca="false">(Team_Status!A103)</f>
+        <f aca="false">(Team_Status!A102)</f>
         <v>0</v>
       </c>
       <c r="B82" s="2"/>
@@ -13767,7 +13811,7 @@
     </row>
     <row r="83" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="26" t="n">
-        <f aca="false">(Team_Status!A104)</f>
+        <f aca="false">(Team_Status!A103)</f>
         <v>0</v>
       </c>
       <c r="B83" s="2"/>
@@ -13791,7 +13835,7 @@
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="26" t="n">
-        <f aca="false">(Team_Status!A105)</f>
+        <f aca="false">(Team_Status!A104)</f>
         <v>0</v>
       </c>
       <c r="B84" s="2"/>
@@ -13815,7 +13859,7 @@
     </row>
     <row r="85" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="26" t="n">
-        <f aca="false">(Team_Status!A106)</f>
+        <f aca="false">(Team_Status!A105)</f>
         <v>0</v>
       </c>
       <c r="B85" s="2"/>
@@ -13839,7 +13883,7 @@
     </row>
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="26" t="n">
-        <f aca="false">(Team_Status!A107)</f>
+        <f aca="false">(Team_Status!A106)</f>
         <v>0</v>
       </c>
       <c r="B86" s="2"/>
@@ -13863,7 +13907,7 @@
     </row>
     <row r="87" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="26" t="n">
-        <f aca="false">(Team_Status!A108)</f>
+        <f aca="false">(Team_Status!A107)</f>
         <v>0</v>
       </c>
       <c r="B87" s="2"/>
@@ -13887,7 +13931,7 @@
     </row>
     <row r="88" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="26" t="n">
-        <f aca="false">(Team_Status!A109)</f>
+        <f aca="false">(Team_Status!A108)</f>
         <v>0</v>
       </c>
       <c r="B88" s="2"/>
@@ -13911,7 +13955,7 @@
     </row>
     <row r="89" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="26" t="n">
-        <f aca="false">(Team_Status!A110)</f>
+        <f aca="false">(Team_Status!A109)</f>
         <v>0</v>
       </c>
       <c r="B89" s="2"/>
@@ -13935,7 +13979,7 @@
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="26" t="n">
-        <f aca="false">(Team_Status!A111)</f>
+        <f aca="false">(Team_Status!A110)</f>
         <v>0</v>
       </c>
       <c r="B90" s="2"/>
@@ -13959,7 +14003,7 @@
     </row>
     <row r="91" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="26" t="n">
-        <f aca="false">(Team_Status!A112)</f>
+        <f aca="false">(Team_Status!A111)</f>
         <v>0</v>
       </c>
       <c r="B91" s="2"/>
@@ -13983,7 +14027,7 @@
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="26" t="n">
-        <f aca="false">(Team_Status!A113)</f>
+        <f aca="false">(Team_Status!A112)</f>
         <v>0</v>
       </c>
       <c r="B92" s="2"/>
@@ -14007,7 +14051,7 @@
     </row>
     <row r="93" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="26" t="n">
-        <f aca="false">(Team_Status!A114)</f>
+        <f aca="false">(Team_Status!A113)</f>
         <v>0</v>
       </c>
       <c r="B93" s="2"/>
@@ -14031,7 +14075,7 @@
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="26" t="n">
-        <f aca="false">(Team_Status!A115)</f>
+        <f aca="false">(Team_Status!A114)</f>
         <v>0</v>
       </c>
       <c r="B94" s="2"/>
@@ -14055,7 +14099,7 @@
     </row>
     <row r="95" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="26" t="n">
-        <f aca="false">(Team_Status!A116)</f>
+        <f aca="false">(Team_Status!A115)</f>
         <v>0</v>
       </c>
       <c r="B95" s="2"/>
@@ -14079,7 +14123,7 @@
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="26" t="n">
-        <f aca="false">(Team_Status!A117)</f>
+        <f aca="false">(Team_Status!A116)</f>
         <v>0</v>
       </c>
       <c r="B96" s="2"/>
@@ -14103,7 +14147,7 @@
     </row>
     <row r="97" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="26" t="n">
-        <f aca="false">(Team_Status!A118)</f>
+        <f aca="false">(Team_Status!A117)</f>
         <v>0</v>
       </c>
       <c r="B97" s="2"/>
@@ -14127,7 +14171,7 @@
     </row>
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="26" t="n">
-        <f aca="false">(Team_Status!A119)</f>
+        <f aca="false">(Team_Status!A118)</f>
         <v>0</v>
       </c>
       <c r="B98" s="2"/>
@@ -14151,7 +14195,7 @@
     </row>
     <row r="99" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="n">
-        <f aca="false">(Team_Status!A120)</f>
+        <f aca="false">(Team_Status!A119)</f>
         <v>0</v>
       </c>
       <c r="B99" s="2"/>
@@ -14175,7 +14219,7 @@
     </row>
     <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="n">
-        <f aca="false">(Team_Status!A121)</f>
+        <f aca="false">(Team_Status!A120)</f>
         <v>0</v>
       </c>
       <c r="B100" s="2"/>
@@ -14199,7 +14243,7 @@
     </row>
     <row r="101" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="26" t="n">
-        <f aca="false">(Team_Status!A122)</f>
+        <f aca="false">(Team_Status!A121)</f>
         <v>0</v>
       </c>
       <c r="B101" s="2"/>
@@ -14223,7 +14267,7 @@
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="26" t="n">
-        <f aca="false">(Team_Status!A123)</f>
+        <f aca="false">(Team_Status!A122)</f>
         <v>0</v>
       </c>
       <c r="B102" s="2"/>
@@ -14247,7 +14291,7 @@
     </row>
     <row r="103" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="26" t="n">
-        <f aca="false">(Team_Status!A124)</f>
+        <f aca="false">(Team_Status!A123)</f>
         <v>0</v>
       </c>
       <c r="B103" s="2"/>
@@ -14271,7 +14315,7 @@
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="26" t="n">
-        <f aca="false">(Team_Status!A125)</f>
+        <f aca="false">(Team_Status!A124)</f>
         <v>0</v>
       </c>
       <c r="B104" s="2"/>
@@ -14295,7 +14339,7 @@
     </row>
     <row r="105" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="26" t="n">
-        <f aca="false">(Team_Status!A126)</f>
+        <f aca="false">(Team_Status!A125)</f>
         <v>0</v>
       </c>
       <c r="B105" s="2"/>
@@ -14319,7 +14363,7 @@
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="26" t="n">
-        <f aca="false">(Team_Status!A127)</f>
+        <f aca="false">(Team_Status!A126)</f>
         <v>0</v>
       </c>
       <c r="B106" s="2"/>
@@ -14343,7 +14387,7 @@
     </row>
     <row r="107" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="26" t="n">
-        <f aca="false">(Team_Status!A128)</f>
+        <f aca="false">(Team_Status!A127)</f>
         <v>0</v>
       </c>
       <c r="B107" s="2"/>
@@ -14367,7 +14411,7 @@
     </row>
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="26" t="n">
-        <f aca="false">(Team_Status!A129)</f>
+        <f aca="false">(Team_Status!A128)</f>
         <v>0</v>
       </c>
       <c r="B108" s="2"/>
@@ -14391,7 +14435,7 @@
     </row>
     <row r="109" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="26" t="n">
-        <f aca="false">(Team_Status!A130)</f>
+        <f aca="false">(Team_Status!A129)</f>
         <v>0</v>
       </c>
       <c r="B109" s="2"/>
@@ -14415,7 +14459,7 @@
     </row>
     <row r="110" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="26" t="n">
-        <f aca="false">(Team_Status!A131)</f>
+        <f aca="false">(Team_Status!A130)</f>
         <v>0</v>
       </c>
       <c r="B110" s="2"/>
@@ -14439,7 +14483,7 @@
     </row>
     <row r="111" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="26" t="n">
-        <f aca="false">(Team_Status!A132)</f>
+        <f aca="false">(Team_Status!A131)</f>
         <v>0</v>
       </c>
       <c r="B111" s="2"/>
@@ -14463,7 +14507,7 @@
     </row>
     <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="26" t="n">
-        <f aca="false">(Team_Status!A133)</f>
+        <f aca="false">(Team_Status!A132)</f>
         <v>0</v>
       </c>
       <c r="B112" s="2"/>
@@ -14487,7 +14531,7 @@
     </row>
     <row r="113" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="26" t="n">
-        <f aca="false">(Team_Status!A134)</f>
+        <f aca="false">(Team_Status!A133)</f>
         <v>0</v>
       </c>
       <c r="B113" s="2"/>
@@ -14511,7 +14555,7 @@
     </row>
     <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="26" t="n">
-        <f aca="false">(Team_Status!A135)</f>
+        <f aca="false">(Team_Status!A134)</f>
         <v>0</v>
       </c>
       <c r="B114" s="2"/>
@@ -14535,7 +14579,7 @@
     </row>
     <row r="115" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="26" t="n">
-        <f aca="false">(Team_Status!A136)</f>
+        <f aca="false">(Team_Status!A135)</f>
         <v>0</v>
       </c>
       <c r="B115" s="2"/>
@@ -14559,7 +14603,7 @@
     </row>
     <row r="116" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="26" t="n">
-        <f aca="false">(Team_Status!A137)</f>
+        <f aca="false">(Team_Status!A136)</f>
         <v>0</v>
       </c>
       <c r="B116" s="2"/>
@@ -14583,7 +14627,7 @@
     </row>
     <row r="117" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="26" t="n">
-        <f aca="false">(Team_Status!A138)</f>
+        <f aca="false">(Team_Status!A137)</f>
         <v>0</v>
       </c>
       <c r="B117" s="2"/>
@@ -14607,7 +14651,7 @@
     </row>
     <row r="118" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="26" t="n">
-        <f aca="false">(Team_Status!A139)</f>
+        <f aca="false">(Team_Status!A138)</f>
         <v>0</v>
       </c>
       <c r="B118" s="2"/>
@@ -14631,7 +14675,7 @@
     </row>
     <row r="119" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="26" t="n">
-        <f aca="false">(Team_Status!A140)</f>
+        <f aca="false">(Team_Status!A139)</f>
         <v>0</v>
       </c>
       <c r="B119" s="2"/>
@@ -14655,7 +14699,7 @@
     </row>
     <row r="120" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="26" t="n">
-        <f aca="false">(Team_Status!A141)</f>
+        <f aca="false">(Team_Status!A140)</f>
         <v>0</v>
       </c>
       <c r="B120" s="2"/>
@@ -14679,7 +14723,7 @@
     </row>
     <row r="121" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="26" t="n">
-        <f aca="false">(Team_Status!A142)</f>
+        <f aca="false">(Team_Status!A141)</f>
         <v>0</v>
       </c>
       <c r="B121" s="2"/>
@@ -14703,7 +14747,7 @@
     </row>
     <row r="122" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="26" t="n">
-        <f aca="false">(Team_Status!A143)</f>
+        <f aca="false">(Team_Status!A142)</f>
         <v>0</v>
       </c>
       <c r="B122" s="2"/>
@@ -14727,7 +14771,7 @@
     </row>
     <row r="123" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="26" t="n">
-        <f aca="false">(Team_Status!A144)</f>
+        <f aca="false">(Team_Status!A143)</f>
         <v>0</v>
       </c>
       <c r="B123" s="2"/>
@@ -14751,7 +14795,7 @@
     </row>
     <row r="124" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="26" t="n">
-        <f aca="false">(Team_Status!A145)</f>
+        <f aca="false">(Team_Status!A144)</f>
         <v>0</v>
       </c>
       <c r="B124" s="2"/>
@@ -14775,7 +14819,7 @@
     </row>
     <row r="125" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="26" t="n">
-        <f aca="false">(Team_Status!A146)</f>
+        <f aca="false">(Team_Status!A145)</f>
         <v>0</v>
       </c>
       <c r="B125" s="2"/>
@@ -14799,7 +14843,7 @@
     </row>
     <row r="126" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="26" t="n">
-        <f aca="false">(Team_Status!A147)</f>
+        <f aca="false">(Team_Status!A146)</f>
         <v>0</v>
       </c>
       <c r="B126" s="2"/>
@@ -14823,7 +14867,7 @@
     </row>
     <row r="127" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="26" t="n">
-        <f aca="false">(Team_Status!A148)</f>
+        <f aca="false">(Team_Status!A147)</f>
         <v>0</v>
       </c>
       <c r="B127" s="2"/>
@@ -14847,7 +14891,7 @@
     </row>
     <row r="128" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="26" t="n">
-        <f aca="false">(Team_Status!A149)</f>
+        <f aca="false">(Team_Status!A148)</f>
         <v>0</v>
       </c>
       <c r="B128" s="2"/>
@@ -14871,7 +14915,7 @@
     </row>
     <row r="129" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="26" t="n">
-        <f aca="false">(Team_Status!A150)</f>
+        <f aca="false">(Team_Status!A149)</f>
         <v>0</v>
       </c>
       <c r="B129" s="2"/>
@@ -14895,7 +14939,7 @@
     </row>
     <row r="130" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="26" t="n">
-        <f aca="false">(Team_Status!A151)</f>
+        <f aca="false">(Team_Status!A150)</f>
         <v>0</v>
       </c>
       <c r="B130" s="2"/>
@@ -14919,7 +14963,7 @@
     </row>
     <row r="131" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="26" t="n">
-        <f aca="false">(Team_Status!A152)</f>
+        <f aca="false">(Team_Status!A151)</f>
         <v>0</v>
       </c>
       <c r="B131" s="2"/>
@@ -14943,7 +14987,7 @@
     </row>
     <row r="132" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="26" t="n">
-        <f aca="false">(Team_Status!A153)</f>
+        <f aca="false">(Team_Status!A152)</f>
         <v>0</v>
       </c>
       <c r="B132" s="2"/>
@@ -14967,7 +15011,7 @@
     </row>
     <row r="133" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="26" t="n">
-        <f aca="false">(Team_Status!A154)</f>
+        <f aca="false">(Team_Status!A153)</f>
         <v>0</v>
       </c>
       <c r="B133" s="2"/>
@@ -14990,7 +15034,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2"/>
+      <c r="A134" s="26" t="n">
+        <f aca="false">(Team_Status!A154)</f>
+        <v>0</v>
+      </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -15283,6 +15330,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="148" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2" t="n">
+        <f aca="false">SUM(B148+D148+F148+H148+J148)</f>
+        <v>0</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <f aca="false">SUM(C148+E148+G148+I148+K148)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
